--- a/Design/2.07inch_Bom.xlsx
+++ b/Design/2.07inch_Bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK0J2071758B03-AM-FPC\Design\Project Outputs for FPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62BD141-64F3-458A-B046-A6DFE2568575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F425A-A97F-481F-A7B4-AF6A7A628813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{98661CE8-6066-4817-9DBC-77DF21D95E58}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{6B9DC8F6-C149-4A19-B28C-47A5AB97CF32}"/>
   </bookViews>
   <sheets>
     <sheet name="FPCB" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Line #</t>
   </si>
@@ -48,7 +48,7 @@
     <t/>
   </si>
   <si>
-    <t>2.2uF/6.3V</t>
+    <t>2.2uF/0201/6.3V</t>
   </si>
   <si>
     <t>NONE</t>
@@ -57,34 +57,40 @@
     <t>C1, C2, C18, C19</t>
   </si>
   <si>
-    <t>1.0uF/6.3V</t>
+    <t>1.0uF/0201/6.3V</t>
   </si>
   <si>
     <t>C3, C4, C5, C10</t>
   </si>
   <si>
-    <t>2.2uF/10V</t>
+    <t>2.2uF/0201/10V</t>
   </si>
   <si>
     <t>C6, C9, C13, C15, C16, C17</t>
   </si>
   <si>
-    <t>1.0uF/10V</t>
+    <t>1.0uF/0201/10V</t>
   </si>
   <si>
     <t>C7, C8, C12, C14</t>
   </si>
   <si>
-    <t>22nF/6.3V</t>
+    <t>22nF/0201/6.3V</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
+    <t>10uF/0402/6.3V</t>
+  </si>
+  <si>
+    <t>C20, C23, C24</t>
+  </si>
+  <si>
     <t>10uF/6.3V</t>
   </si>
   <si>
-    <t>C20, C21, C23, C24, C25, C26</t>
+    <t>C21</t>
   </si>
   <si>
     <t>100nF/6.3V</t>
@@ -93,6 +99,18 @@
     <t>C22</t>
   </si>
   <si>
+    <t>22uF/0402/6.3V</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>100nF/0201/6.3V</t>
+  </si>
+  <si>
+    <t>C26, C27, C28</t>
+  </si>
+  <si>
     <t>LDSR01S30ST5G</t>
   </si>
   <si>
@@ -117,7 +135,7 @@
     <t>J2</t>
   </si>
   <si>
-    <t>LQM2MPN2R2NG0L</t>
+    <t>GLULK2R201A</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -511,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAF4C4D-35FD-4BD7-8987-7468FB92728D}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FC871-3ADE-46D1-A2E5-45BBBEA7C2E6}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -523,11 +541,18 @@
     <col min="1" max="1" width="8.765625" customWidth="1"/>
     <col min="2" max="2" width="20.3828125" customWidth="1"/>
     <col min="3" max="3" width="12.921875" customWidth="1"/>
-    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.61328125" customWidth="1"/>
     <col min="5" max="5" width="10.69140625" customWidth="1"/>
+    <col min="6" max="6" width="15.921875" customWidth="1"/>
+    <col min="7" max="7" width="25.921875" customWidth="1"/>
+    <col min="8" max="8" width="22.69140625" customWidth="1"/>
+    <col min="9" max="9" width="18.921875" customWidth="1"/>
+    <col min="10" max="10" width="21.921875" customWidth="1"/>
+    <col min="11" max="11" width="19.69140625" customWidth="1"/>
+    <col min="12" max="12" width="18.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,8 +568,15 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -560,8 +592,15 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -577,8 +616,15 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -594,8 +640,15 @@
       <c r="E4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -611,11 +664,16 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -628,8 +686,15 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -643,10 +708,17 @@
         <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -662,8 +734,15 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -679,16 +758,21 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -696,8 +780,15 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -705,16 +796,23 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -730,8 +828,15 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -739,48 +844,139 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
